--- a/medicine/Soins infirmiers et profession infirmière/Conseil_international_des_infirmières/Conseil_international_des_infirmières.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Conseil_international_des_infirmières/Conseil_international_des_infirmières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conseil_international_des_infirmi%C3%A8res</t>
+          <t>Conseil_international_des_infirmières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Conseil international des infirmières (CII), fondé en 1899, est une ONG fédérant des associations nationales d’infirmiers et infirmières.
 Il représente le personnel infirmier de plus de 128 pays.
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conseil_international_des_infirmi%C3%A8res</t>
+          <t>Conseil_international_des_infirmières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +532,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Promouvoir les soins infirmiers.
 Le Conseil international des infirmières (CII) est une fédération d’associations nationales d’infirmières, représentant les infirmières de plus de 128 pays. Fondé en 1899, le CII est la première et la plus importante organisation internationale regroupant des professionnels de la santé.  Géré par des infirmières pour des infirmières, il œuvre dans le but de garantir des soins infirmiers de qualité pour tous, de solides politiques de santé partout, l’amélioration de la formation, ainsi que l’existence au niveau international d’une profession infirmière respectée et d’un personnel compétent et satisfait.
@@ -534,7 +548,7 @@
 Deux objectifs principaux et cinq valeurs essentielles sous-tendent et motivent toutes les activités du CII. Le premier objectif veut influencer la santé et les soins infirmiers au niveau mondial et le deuxième consiste à renforcer les associations nationales d’infirmières.
 Les cinq valeurs essentielles sont : le leadership de vision, l’inclusion, la flexibilité, le partenariat et l’accomplissement.
 Le CII a son siège à Genève, Suisse. Toutes les informations sur son organisation, ses publications et ses activités sont consultables sur le site internet du CII.
-En 2020, il promeut la Pratique infirmière avancée, c'est-à-dire l'extension des champs de compétences pour les infirmières expérimentées[1]
+En 2020, il promeut la Pratique infirmière avancée, c'est-à-dire l'extension des champs de compétences pour les infirmières expérimentées
 </t>
         </is>
       </c>
